--- a/results/mp/logistic/corona/confidence/210/masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,36 +46,42 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -85,24 +91,27 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>a</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -118,40 +127,43 @@
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>won</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>won</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
@@ -160,61 +172,52 @@
     <t>join</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>for</t>
+    <t>?</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,16 +665,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8013698630136986</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C4">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D4">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,16 +765,16 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6756756756756757</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -859,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5714285714285714</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,38 +994,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5686274509803921</v>
+        <v>0.5387596899224806</v>
       </c>
       <c r="C10">
+        <v>278</v>
+      </c>
+      <c r="D10">
+        <v>278</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>238</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L10">
         <v>29</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>29</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>22</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
-        <v>0.8113207547169812</v>
-      </c>
-      <c r="L10">
-        <v>86</v>
-      </c>
-      <c r="M10">
-        <v>86</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5503875968992248</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C11">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,37 +1094,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4832214765100671</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C12">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>77</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>72</v>
       </c>
-      <c r="D12">
-        <v>72</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>77</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.79375</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4388888888888889</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C13">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.4138888888888889</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2619047619047619</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,37 +1294,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1662198391420912</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>62</v>
       </c>
-      <c r="D16">
-        <v>62</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>311</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.78125</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,37 +1344,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.08333333333333333</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>185</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L17">
         <v>25</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>25</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>275</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L17">
-        <v>28</v>
-      </c>
-      <c r="M17">
-        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1391,37 +1394,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01559207753898019</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2336</v>
+        <v>310</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1441,37 +1444,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01549886987407168</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>3049</v>
+        <v>272</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L19">
         <v>46</v>
       </c>
-      <c r="K19">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L19">
-        <v>35</v>
-      </c>
       <c r="M19">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,37 +1494,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01170411985018727</v>
+        <v>0.01643570737995488</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F20">
-        <v>0.78</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2111</v>
+        <v>3052</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,37 +1544,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007593457943925234</v>
+        <v>0.01403837154890033</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="F21">
-        <v>0.5700000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>5097</v>
+        <v>2107</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,37 +1594,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006861755802219979</v>
+        <v>0.0134964150147617</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>0.55</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>4921</v>
+        <v>2339</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.675</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,63 +1644,87 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006747324336900884</v>
+        <v>0.01130434782608696</v>
       </c>
       <c r="C23">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>0.26</v>
+      </c>
+      <c r="F23">
+        <v>0.74</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2274</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>0.6441176470588236</v>
+      </c>
+      <c r="L23">
+        <v>219</v>
+      </c>
+      <c r="M23">
+        <v>219</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23">
-        <v>59</v>
-      </c>
-      <c r="E23">
-        <v>0.51</v>
-      </c>
-      <c r="F23">
-        <v>0.49</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>4269</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.675</v>
-      </c>
-      <c r="L23">
-        <v>27</v>
-      </c>
-      <c r="M23">
-        <v>27</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="B24">
+        <v>0.007797270955165692</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>0.47</v>
+      </c>
+      <c r="F24">
+        <v>0.53</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5090</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1709,47 +1736,95 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.006507088078085057</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>0.47</v>
+      </c>
+      <c r="F25">
+        <v>0.53</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4275</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6176470588235294</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="L25">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="M25">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.006243705941591138</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>4934</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1761,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.6108786610878661</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1787,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L28">
         <v>55</v>
       </c>
-      <c r="K28">
-        <v>0.6101694915254238</v>
-      </c>
-      <c r="L28">
-        <v>180</v>
-      </c>
       <c r="M28">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1813,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1839,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1865,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5280898876404494</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1891,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.4901960784313725</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1917,267 +1992,215 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.3698630136986301</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.358974358974359</v>
+        <v>0.01171058134671685</v>
       </c>
       <c r="L34">
         <v>28</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.02921535893155259</v>
+        <v>0.0112739571589628</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1163</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.01765447667087012</v>
+        <v>0.01070399341292713</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N36">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="O36">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1558</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.01352874859075535</v>
+        <v>0.00940733772342427</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N37">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="O37">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2625</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K38">
-        <v>0.01352201257861635</v>
+        <v>0.006829268292682927</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="N38">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
       <c r="O38">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>3137</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="K39">
-        <v>0.01256281407035176</v>
+        <v>0.006243705941591138</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N39">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="O39">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2358</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K40">
-        <v>0.00826279725916969</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="N40">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="O40">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4921</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41">
-        <v>0.006978367062107467</v>
-      </c>
-      <c r="L41">
-        <v>30</v>
-      </c>
-      <c r="M41">
-        <v>59</v>
-      </c>
-      <c r="N41">
-        <v>0.51</v>
-      </c>
-      <c r="O41">
-        <v>0.49</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K42">
-        <v>0.005657432696059305</v>
-      </c>
-      <c r="L42">
-        <v>29</v>
-      </c>
-      <c r="M42">
-        <v>68</v>
-      </c>
-      <c r="N42">
-        <v>0.43</v>
-      </c>
-      <c r="O42">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>5097</v>
+        <v>4275</v>
       </c>
     </row>
   </sheetData>
